--- a/xlsx/LIBRIS_intext.xlsx
+++ b/xlsx/LIBRIS_intext.xlsx
@@ -29,43 +29,43 @@
     <t>瑞典</t>
   </si>
   <si>
-    <t>政策_政策_美國_LIBRIS</t>
+    <t>政策_政策_美国_LIBRIS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>聯合目錄</t>
+    <t>联合目录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9</t>
   </si>
   <si>
-    <t>斯德哥爾摩</t>
+    <t>斯德哥尔摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E7%9A%87%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>瑞典皇家圖書館</t>
+    <t>瑞典皇家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E8%AE%80%E7%B7%A8%E7%9B%AE%E6%A0%BC%E5%BC%8F%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>機讀編目格式標準</t>
+    <t>机读编目格式标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
   </si>
   <si>
-    <t>瑞典語</t>
+    <t>瑞典语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E8%BF%9E%E7%BB%AD%E5%87%BA%E7%89%88%E7%89%A9%E5%8F%B7</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>

--- a/xlsx/LIBRIS_intext.xlsx
+++ b/xlsx/LIBRIS_intext.xlsx
@@ -29,7 +29,7 @@
     <t>瑞典</t>
   </si>
   <si>
-    <t>政策_政策_美國_LIBRIS</t>
+    <t>体育运动_体育运动_明成祖_LIBRIS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%9B%AE%E9%8C%84</t>
